--- a/Data/aearep-140/candidatepackages.xlsx
+++ b/Data/aearep-140/candidatepackages.xlsx
@@ -106,10 +106,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1962</v>
+        <v>1792</v>
       </c>
       <c r="C2">
-        <v>0.65053051710128784</v>
+        <v>0.59239667654037476</v>
       </c>
       <c r="D2"/>
     </row>
